--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
     <sheet name="admin_info" sheetId="2" r:id="rId2"/>
+    <sheet name="araclar" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>admin123!</t>
+  </si>
+  <si>
+    <t>Araclar</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Porshe</t>
   </si>
 </sst>
 </file>
@@ -319,7 +332,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -405,4 +418,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>